--- a/IN4RE/TestData/Engineering/Master.xlsx
+++ b/IN4RE/TestData/Engineering/Master.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78534AC-E344-4B60-8762-FAFA0F617E6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867A1AE7-F80B-4E54-A3D0-C9C2FE48ECEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,26 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Materil Type</t>
-  </si>
-  <si>
     <t>Asset Type</t>
   </si>
   <si>
-    <t>BOQ_Description</t>
-  </si>
-  <si>
-    <t>BOQ Name</t>
-  </si>
-  <si>
     <t>SubCategory</t>
   </si>
   <si>
@@ -52,9 +40,6 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Enhancement Project</t>
-  </si>
-  <si>
     <t>AutoTest</t>
   </si>
   <si>
@@ -64,26 +49,50 @@
     <t>7TH FLOOR</t>
   </si>
   <si>
-    <t>Demo1</t>
-  </si>
-  <si>
-    <t>BOQ_Test01</t>
-  </si>
-  <si>
-    <t>BOQ Quantity</t>
-  </si>
-  <si>
-    <t>BOQ Rate</t>
-  </si>
-  <si>
     <t>ANSType</t>
+  </si>
+  <si>
+    <t>Enhancement Project, Bangalore</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>bottle</t>
+  </si>
+  <si>
+    <t>Material Sub Type</t>
+  </si>
+  <si>
+    <t>Sub-Ans</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>Material UOM</t>
+  </si>
+  <si>
+    <t>1 CENTIMETER</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Asset Sub Type</t>
+  </si>
+  <si>
+    <t>ASSET TYPE 12</t>
+  </si>
+  <si>
+    <t>ASSET SUB TYPE 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +100,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,12 +131,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,91 +438,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>